--- a/VTQBFantasyPredictions2019.xlsx
+++ b/VTQBFantasyPredictions2019.xlsx
@@ -381,11 +381,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Russell Wilson</t>
+          <t>Drew Brees</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3742980957031</v>
+        <v>369.2467956542969</v>
       </c>
     </row>
     <row r="3">
@@ -395,247 +395,247 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>366.7793273925781</v>
+        <v>348.5909729003906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Andrew Luck</t>
+          <t>Russell Wilson</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.3124389648438</v>
+        <v>340.447998046875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aaron Rodgers</t>
+          <t>Tom Brady</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>316.1448669433594</v>
+        <v>339.8552856445312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Derek Carr</t>
+          <t>Eli Manning</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306.7340698242188</v>
+        <v>325.6010131835938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Matthew Stafford</t>
+          <t>Aaron Rodgers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>306.5953369140625</v>
+        <v>321.6439819335938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Kirk Cousins</t>
+          <t>Philip Rivers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289.4783020019531</v>
+        <v>318.1250610351562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Ben Roethlisberger</t>
+          <t>Sam Darnold</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.5521850585938</v>
+        <v>298.7162475585938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Eli Manning</t>
+          <t>Ben Roethlisberger</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.3347473144531</v>
+        <v>294.4609375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Case Keenum</t>
+          <t>Andrew Luck</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>259.1862487792969</v>
+        <v>287.7659301757812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Matt Ryan</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254.8070678710938</v>
+        <v>283.4190979003906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Drew Brees</t>
+          <t>Jared Goff</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>253.0520629882812</v>
+        <v>278.4857788085938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jared Goff</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248.1493835449219</v>
+        <v>278.0023803710938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Derek Carr</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241.5394897460938</v>
+        <v>274.018310546875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Sam Darnold</t>
+          <t>Matthew Stafford</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.1628875732422</v>
+        <v>273.4373168945312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Mitchell Trubisky</t>
+          <t>Deshaun Watson</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.6515502929688</v>
+        <v>270.2620239257812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Kirk Cousins</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234.1001281738281</v>
+        <v>262.3665161132812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Deshaun Watson</t>
+          <t>Case Keenum</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.4720153808594</v>
+        <v>260.3770141601562</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Dak Prescott</t>
+          <t>Mitchell Trubisky</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.9004821777344</v>
+        <v>255.5486755371094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cam Newton</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>227.2920532226562</v>
+        <v>253.48095703125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Philip Rivers</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.8636932373047</v>
+        <v>249.1614990234375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Blake Bortles</t>
+          <t>Josh Rosen</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>196.7420654296875</v>
+        <v>245.7601623535156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Josh Rosen</t>
+          <t>Blake Bortles</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>184.2122344970703</v>
+        <v>244.0041046142578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Marcus Mariota</t>
+          <t>Cam Newton</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.8847961425781</v>
+        <v>220.86865234375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Tom Brady</t>
+          <t>Marcus Mariota</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.2508239746094</v>
+        <v>199.1291809082031</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Joe Webb</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>155.8598022460938</v>
+        <v>141.0687408447266</v>
       </c>
     </row>
     <row r="28">
@@ -645,17 +645,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.4968719482422</v>
+        <v>10.18092155456543</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Joe Webb</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.8836441040039</v>
+        <v>9.543813705444336</v>
       </c>
     </row>
   </sheetData>
